--- a/medicine/Psychotrope/Ramée_(bière)/Ramée_(bière).xlsx
+++ b/medicine/Psychotrope/Ramée_(bière)/Ramée_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ram%C3%A9e_(bi%C3%A8re)</t>
+          <t>Ramée_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ramée est une bière d'abbaye belge brassée par la brasserie du Bocq à Purnode dans la commune belge d'Yvoir située en Région wallonne dans la province de Namur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ram%C3%A9e_(bi%C3%A8re)</t>
+          <t>Ramée_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’origine d'une brasserie à l'Abbaye de la Ramée remonterait  au début du XIIIe siècle[1]. L'année 1216 figure d'ailleurs sur l'étiquette. Cette abbaye est située à Jauchelette dans la commune de Jodoigne en Brabant wallon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’origine d'une brasserie à l'Abbaye de la Ramée remonterait  au début du XIIIe siècle. L'année 1216 figure d'ailleurs sur l'étiquette. Cette abbaye est située à Jauchelette dans la commune de Jodoigne en Brabant wallon.
 Depuis 2001, la Ramée fut produite par la brasserie Brunehaut à Rongy puis dès 2006 par la brasserie du Bocq à Purnode. Toutefois, elle n'est pas commercialisée par cette brasserie mais par une entreprise située à Ternat.
 Ces bières portent aujourd'hui le logo des bières belges d'abbaye reconnues.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ram%C3%A9e_(bi%C3%A8re)</t>
+          <t>Ramée_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Actuellement, deux bières sont brassées et commercialisées en bouteilles de 33 cl : 
 La Ramée Triple Blonde, une bière de haute fermentation titrant 7,5 % d'alcool
